--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mmrn2-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mmrn2-Cd93.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>42.00142366666666</v>
+        <v>37.88856266666667</v>
       </c>
       <c r="H2">
-        <v>126.004271</v>
+        <v>113.665688</v>
       </c>
       <c r="I2">
-        <v>0.9484641293860542</v>
+        <v>0.9468476050819132</v>
       </c>
       <c r="J2">
-        <v>0.9560916295960395</v>
+        <v>0.9540268599258594</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>196.8487906666667</v>
+        <v>162.7225033333333</v>
       </c>
       <c r="N2">
-        <v>590.546372</v>
+        <v>488.16751</v>
       </c>
       <c r="O2">
-        <v>0.5898085209504823</v>
+        <v>0.5231437953541009</v>
       </c>
       <c r="P2">
-        <v>0.5923834015035012</v>
+        <v>0.5247717033381212</v>
       </c>
       <c r="Q2">
-        <v>8267.929455061645</v>
+        <v>6165.321764821875</v>
       </c>
       <c r="R2">
-        <v>74411.36509555481</v>
+        <v>55487.89588339688</v>
       </c>
       <c r="S2">
-        <v>0.5594122253277755</v>
+        <v>0.495337449744493</v>
       </c>
       <c r="T2">
-        <v>0.5663728116891275</v>
+        <v>0.5006463003136123</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>42.00142366666666</v>
+        <v>37.88856266666667</v>
       </c>
       <c r="H3">
-        <v>126.004271</v>
+        <v>113.665688</v>
       </c>
       <c r="I3">
-        <v>0.9484641293860542</v>
+        <v>0.9468476050819132</v>
       </c>
       <c r="J3">
-        <v>0.9560916295960395</v>
+        <v>0.9540268599258594</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.869893</v>
       </c>
       <c r="O3">
-        <v>0.0008688061226717314</v>
+        <v>0.0009322191998643353</v>
       </c>
       <c r="P3">
-        <v>0.0008725990010553907</v>
+        <v>0.0009351200601857102</v>
       </c>
       <c r="Q3">
-        <v>12.17891481255589</v>
+        <v>10.98633181459822</v>
       </c>
       <c r="R3">
-        <v>109.610233313003</v>
+        <v>98.876986331384</v>
       </c>
       <c r="S3">
-        <v>0.0008240314427451171</v>
+        <v>0.0008826695168029234</v>
       </c>
       <c r="T3">
-        <v>0.0008342846009029248</v>
+        <v>0.0008921296546726537</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>42.00142366666666</v>
+        <v>37.88856266666667</v>
       </c>
       <c r="H4">
-        <v>126.004271</v>
+        <v>113.665688</v>
       </c>
       <c r="I4">
-        <v>0.9484641293860542</v>
+        <v>0.9468476050819132</v>
       </c>
       <c r="J4">
-        <v>0.9560916295960395</v>
+        <v>0.9540268599258594</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>54.63182800000001</v>
+        <v>61.580654</v>
       </c>
       <c r="N4">
-        <v>163.895484</v>
+        <v>184.741962</v>
       </c>
       <c r="O4">
-        <v>0.1636907067621498</v>
+        <v>0.1979783766474813</v>
       </c>
       <c r="P4">
-        <v>0.1644053183735124</v>
+        <v>0.1985944416431287</v>
       </c>
       <c r="Q4">
-        <v>2294.614553512462</v>
+        <v>2333.202468133317</v>
       </c>
       <c r="R4">
-        <v>20651.53098161216</v>
+        <v>20998.82221319986</v>
       </c>
       <c r="S4">
-        <v>0.1552547636777503</v>
+        <v>0.1874553517866726</v>
       </c>
       <c r="T4">
-        <v>0.1571865487579871</v>
+        <v>0.1894644315595234</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>42.00142366666666</v>
+        <v>37.88856266666667</v>
       </c>
       <c r="H5">
-        <v>126.004271</v>
+        <v>113.665688</v>
       </c>
       <c r="I5">
-        <v>0.9484641293860542</v>
+        <v>0.9468476050819132</v>
       </c>
       <c r="J5">
-        <v>0.9560916295960395</v>
+        <v>0.9540268599258594</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.352083</v>
+        <v>2.8947245</v>
       </c>
       <c r="N5">
-        <v>8.704166000000001</v>
+        <v>5.789449</v>
       </c>
       <c r="O5">
-        <v>0.0130399360269903</v>
+        <v>0.009306378223129816</v>
       </c>
       <c r="P5">
-        <v>0.008731242298328987</v>
+        <v>0.00622355841157717</v>
       </c>
       <c r="Q5">
-        <v>182.7936819154976</v>
+        <v>109.6769506209853</v>
       </c>
       <c r="R5">
-        <v>1096.762091492986</v>
+        <v>658.061703725912</v>
       </c>
       <c r="S5">
-        <v>0.01236791157108919</v>
+        <v>0.008811721932556938</v>
       </c>
       <c r="T5">
-        <v>0.008347867677407231</v>
+        <v>0.005937441888962137</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>42.00142366666666</v>
+        <v>37.88856266666667</v>
       </c>
       <c r="H6">
-        <v>126.004271</v>
+        <v>113.665688</v>
       </c>
       <c r="I6">
-        <v>0.9484641293860542</v>
+        <v>0.9468476050819132</v>
       </c>
       <c r="J6">
-        <v>0.9560916295960395</v>
+        <v>0.9540268599258594</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>77.62766766666668</v>
+        <v>83.559527</v>
       </c>
       <c r="N6">
-        <v>232.883003</v>
+        <v>250.678581</v>
       </c>
       <c r="O6">
-        <v>0.2325920301377057</v>
+        <v>0.2686392305754237</v>
       </c>
       <c r="P6">
-        <v>0.233607438823602</v>
+        <v>0.2694751765469873</v>
       </c>
       <c r="Q6">
-        <v>3260.472557922868</v>
+        <v>3165.950375136526</v>
       </c>
       <c r="R6">
-        <v>29344.25302130581</v>
+        <v>28493.55337622873</v>
       </c>
       <c r="S6">
-        <v>0.2206051973666939</v>
+        <v>0.2543604121013878</v>
       </c>
       <c r="T6">
-        <v>0.2233501168706147</v>
+        <v>0.2570865565090888</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>3.519487</v>
       </c>
       <c r="I7">
-        <v>0.0264920160788878</v>
+        <v>0.02931771140176381</v>
       </c>
       <c r="J7">
-        <v>0.02670506352258549</v>
+        <v>0.02954000622562442</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>196.8487906666667</v>
+        <v>162.7225033333333</v>
       </c>
       <c r="N7">
-        <v>590.546372</v>
+        <v>488.16751</v>
       </c>
       <c r="O7">
-        <v>0.5898085209504823</v>
+        <v>0.5231437953541009</v>
       </c>
       <c r="P7">
-        <v>0.5923834015035012</v>
+        <v>0.5247717033381212</v>
       </c>
       <c r="Q7">
-        <v>230.9355865723515</v>
+        <v>190.8999116963744</v>
       </c>
       <c r="R7">
-        <v>2078.420279151164</v>
+        <v>1718.09920526737</v>
       </c>
       <c r="S7">
-        <v>0.01562521682048521</v>
+        <v>0.01533737881381492</v>
       </c>
       <c r="T7">
-        <v>0.01581963636687626</v>
+        <v>0.01550175938363963</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>3.519487</v>
       </c>
       <c r="I8">
-        <v>0.0264920160788878</v>
+        <v>0.02931771140176381</v>
       </c>
       <c r="J8">
-        <v>0.02670506352258549</v>
+        <v>0.02954000622562442</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.869893</v>
       </c>
       <c r="O8">
-        <v>0.0008688061226717314</v>
+        <v>0.0009322191998643353</v>
       </c>
       <c r="P8">
-        <v>0.0008725990010553907</v>
+        <v>0.0009351200601857102</v>
       </c>
       <c r="Q8">
         <v>0.3401752338767777</v>
@@ -948,10 +948,10 @@
         <v>3.061577104891</v>
       </c>
       <c r="S8">
-        <v>2.301642577125568E-05</v>
+        <v>2.733053346480576E-05</v>
       </c>
       <c r="T8">
-        <v>2.330281175292885E-05</v>
+        <v>2.762345239959216E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>3.519487</v>
       </c>
       <c r="I9">
-        <v>0.0264920160788878</v>
+        <v>0.02931771140176381</v>
       </c>
       <c r="J9">
-        <v>0.02670506352258549</v>
+        <v>0.02954000622562442</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.63182800000001</v>
+        <v>61.580654</v>
       </c>
       <c r="N9">
-        <v>163.895484</v>
+        <v>184.741962</v>
       </c>
       <c r="O9">
-        <v>0.1636907067621498</v>
+        <v>0.1979783766474813</v>
       </c>
       <c r="P9">
-        <v>0.1644053183735124</v>
+        <v>0.1985944416431287</v>
       </c>
       <c r="Q9">
-        <v>64.09200281074533</v>
+        <v>72.24410373483266</v>
       </c>
       <c r="R9">
-        <v>576.828025296708</v>
+        <v>650.1969336134939</v>
       </c>
       <c r="S9">
-        <v>0.004336496835507382</v>
+        <v>0.005804272910340552</v>
       </c>
       <c r="T9">
-        <v>0.004390454470615539</v>
+        <v>0.005866481042512427</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>3.519487</v>
       </c>
       <c r="I10">
-        <v>0.0264920160788878</v>
+        <v>0.02931771140176381</v>
       </c>
       <c r="J10">
-        <v>0.02670506352258549</v>
+        <v>0.02954000622562442</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.352083</v>
+        <v>2.8947245</v>
       </c>
       <c r="N10">
-        <v>8.704166000000001</v>
+        <v>5.789449</v>
       </c>
       <c r="O10">
-        <v>0.0130399360269903</v>
+        <v>0.009306378223129816</v>
       </c>
       <c r="P10">
-        <v>0.008731242298328987</v>
+        <v>0.00622355841157717</v>
       </c>
       <c r="Q10">
-        <v>5.105699847140333</v>
+        <v>3.395981748777166</v>
       </c>
       <c r="R10">
-        <v>30.634199082842</v>
+        <v>20.375890492663</v>
       </c>
       <c r="S10">
-        <v>0.0003454541948946953</v>
+        <v>0.0002728417109413794</v>
       </c>
       <c r="T10">
-        <v>0.0002331683802079609</v>
+        <v>0.0001838439542235268</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>3.519487</v>
       </c>
       <c r="I11">
-        <v>0.0264920160788878</v>
+        <v>0.02931771140176381</v>
       </c>
       <c r="J11">
-        <v>0.02670506352258549</v>
+        <v>0.02954000622562442</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>77.62766766666668</v>
+        <v>83.559527</v>
       </c>
       <c r="N11">
-        <v>232.883003</v>
+        <v>250.678581</v>
       </c>
       <c r="O11">
-        <v>0.2325920301377057</v>
+        <v>0.2686392305754237</v>
       </c>
       <c r="P11">
-        <v>0.233607438823602</v>
+        <v>0.2694751765469873</v>
       </c>
       <c r="Q11">
-        <v>91.06985573105123</v>
+        <v>98.02888966754966</v>
       </c>
       <c r="R11">
-        <v>819.6287015794611</v>
+        <v>882.260007007947</v>
       </c>
       <c r="S11">
-        <v>0.006161831802229256</v>
+        <v>0.007875887433202155</v>
       </c>
       <c r="T11">
-        <v>0.006238501493132795</v>
+        <v>0.007960298392849244</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.049176</v>
+        <v>0.05038133333333333</v>
       </c>
       <c r="H12">
-        <v>0.147528</v>
+        <v>0.151144</v>
       </c>
       <c r="I12">
-        <v>0.001110478358944403</v>
+        <v>0.00125904604054744</v>
       </c>
       <c r="J12">
-        <v>0.001119408769334847</v>
+        <v>0.001268592468438093</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>196.8487906666667</v>
+        <v>162.7225033333333</v>
       </c>
       <c r="N12">
-        <v>590.546372</v>
+        <v>488.16751</v>
       </c>
       <c r="O12">
-        <v>0.5898085209504823</v>
+        <v>0.5231437953541009</v>
       </c>
       <c r="P12">
-        <v>0.5923834015035012</v>
+        <v>0.5247717033381212</v>
       </c>
       <c r="Q12">
-        <v>9.680236129823999</v>
+        <v>8.198176681271111</v>
       </c>
       <c r="R12">
-        <v>87.12212516841601</v>
+        <v>73.78359013143999</v>
       </c>
       <c r="S12">
-        <v>0.0006549695984365171</v>
+        <v>0.0006586621241775413</v>
       </c>
       <c r="T12">
-        <v>0.0006631191744514248</v>
+        <v>0.0006657214305041697</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.049176</v>
+        <v>0.05038133333333333</v>
       </c>
       <c r="H13">
-        <v>0.147528</v>
+        <v>0.151144</v>
       </c>
       <c r="I13">
-        <v>0.001110478358944403</v>
+        <v>0.00125904604054744</v>
       </c>
       <c r="J13">
-        <v>0.001119408769334847</v>
+        <v>0.001268592468438093</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.869893</v>
       </c>
       <c r="O13">
-        <v>0.0008688061226717314</v>
+        <v>0.0009322191998643353</v>
       </c>
       <c r="P13">
-        <v>0.0008725990010553907</v>
+        <v>0.0009351200601857102</v>
       </c>
       <c r="Q13">
-        <v>0.014259286056</v>
+        <v>0.01460878973244444</v>
       </c>
       <c r="R13">
-        <v>0.128333574504</v>
+        <v>0.131479107592</v>
       </c>
       <c r="S13">
-        <v>9.647903973453538E-07</v>
+        <v>1.173706892511494E-06</v>
       </c>
       <c r="T13">
-        <v>9.767949738942317E-07</v>
+        <v>1.186286265436968E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.049176</v>
+        <v>0.05038133333333333</v>
       </c>
       <c r="H14">
-        <v>0.147528</v>
+        <v>0.151144</v>
       </c>
       <c r="I14">
-        <v>0.001110478358944403</v>
+        <v>0.00125904604054744</v>
       </c>
       <c r="J14">
-        <v>0.001119408769334847</v>
+        <v>0.001268592468438093</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>54.63182800000001</v>
+        <v>61.580654</v>
       </c>
       <c r="N14">
-        <v>163.895484</v>
+        <v>184.741962</v>
       </c>
       <c r="O14">
-        <v>0.1636907067621498</v>
+        <v>0.1979783766474813</v>
       </c>
       <c r="P14">
-        <v>0.1644053183735124</v>
+        <v>0.1985944416431287</v>
       </c>
       <c r="Q14">
-        <v>2.686574773728</v>
+        <v>3.102515456058667</v>
       </c>
       <c r="R14">
-        <v>24.179172963552</v>
+        <v>27.922639104528</v>
       </c>
       <c r="S14">
-        <v>0.0001817749874196816</v>
+        <v>0.0002492638912320212</v>
       </c>
       <c r="T14">
-        <v>0.0001840367551125971</v>
+        <v>0.0002519354129421414</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.049176</v>
+        <v>0.05038133333333333</v>
       </c>
       <c r="H15">
-        <v>0.147528</v>
+        <v>0.151144</v>
       </c>
       <c r="I15">
-        <v>0.001110478358944403</v>
+        <v>0.00125904604054744</v>
       </c>
       <c r="J15">
-        <v>0.001119408769334847</v>
+        <v>0.001268592468438093</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.352083</v>
+        <v>2.8947245</v>
       </c>
       <c r="N15">
-        <v>8.704166000000001</v>
+        <v>5.789449</v>
       </c>
       <c r="O15">
-        <v>0.0130399360269903</v>
+        <v>0.009306378223129816</v>
       </c>
       <c r="P15">
-        <v>0.008731242298328987</v>
+        <v>0.00622355841157717</v>
       </c>
       <c r="Q15">
-        <v>0.214018033608</v>
+        <v>0.1458400799426667</v>
       </c>
       <c r="R15">
-        <v>1.284108201648</v>
+        <v>0.8750404796560001</v>
       </c>
       <c r="S15">
-        <v>1.448056675999218E-05</v>
+        <v>1.171715865366852E-05</v>
       </c>
       <c r="T15">
-        <v>9.77382919593681E-06</v>
+        <v>7.895159327811339E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.049176</v>
+        <v>0.05038133333333333</v>
       </c>
       <c r="H16">
-        <v>0.147528</v>
+        <v>0.151144</v>
       </c>
       <c r="I16">
-        <v>0.001110478358944403</v>
+        <v>0.00125904604054744</v>
       </c>
       <c r="J16">
-        <v>0.001119408769334847</v>
+        <v>0.001268592468438093</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>77.62766766666668</v>
+        <v>83.559527</v>
       </c>
       <c r="N16">
-        <v>232.883003</v>
+        <v>250.678581</v>
       </c>
       <c r="O16">
-        <v>0.2325920301377057</v>
+        <v>0.2686392305754237</v>
       </c>
       <c r="P16">
-        <v>0.233607438823602</v>
+        <v>0.2694751765469873</v>
       </c>
       <c r="Q16">
-        <v>3.817418185176001</v>
+        <v>4.209840382962667</v>
       </c>
       <c r="R16">
-        <v>34.356763666584</v>
+        <v>37.888563446664</v>
       </c>
       <c r="S16">
-        <v>0.0002582884159308665</v>
+        <v>0.000338229159591698</v>
       </c>
       <c r="T16">
-        <v>0.0002615022156009938</v>
+        <v>0.0003418541793985335</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.0598565</v>
+        <v>0.903375</v>
       </c>
       <c r="H17">
-        <v>2.119713</v>
+        <v>1.80675</v>
       </c>
       <c r="I17">
-        <v>0.02393337617611352</v>
+        <v>0.02257563747577563</v>
       </c>
       <c r="J17">
-        <v>0.01608389811204027</v>
+        <v>0.0151645413800781</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>196.8487906666667</v>
+        <v>162.7225033333333</v>
       </c>
       <c r="N17">
-        <v>590.546372</v>
+        <v>488.16751</v>
       </c>
       <c r="O17">
-        <v>0.5898085209504823</v>
+        <v>0.5231437953541009</v>
       </c>
       <c r="P17">
-        <v>0.5923834015035012</v>
+        <v>0.5247717033381212</v>
       </c>
       <c r="Q17">
-        <v>208.631470305206</v>
+        <v>146.99944144875</v>
       </c>
       <c r="R17">
-        <v>1251.788821831236</v>
+        <v>881.9966486925</v>
       </c>
       <c r="S17">
-        <v>0.01411610920378503</v>
+        <v>0.01181030467161554</v>
       </c>
       <c r="T17">
-        <v>0.009527834273046154</v>
+        <v>0.007957922210365008</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.0598565</v>
+        <v>0.903375</v>
       </c>
       <c r="H18">
-        <v>2.119713</v>
+        <v>1.80675</v>
       </c>
       <c r="I18">
-        <v>0.02393337617611352</v>
+        <v>0.02257563747577563</v>
       </c>
       <c r="J18">
-        <v>0.01608389811204027</v>
+        <v>0.0151645413800781</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.869893</v>
       </c>
       <c r="O18">
-        <v>0.0008688061226717314</v>
+        <v>0.0009322191998643353</v>
       </c>
       <c r="P18">
-        <v>0.0008725990010553907</v>
+        <v>0.0009351200601857102</v>
       </c>
       <c r="Q18">
-        <v>0.3073205834515</v>
+        <v>0.261946529625</v>
       </c>
       <c r="R18">
-        <v>1.843923500709</v>
+        <v>1.57167917775</v>
       </c>
       <c r="S18">
-        <v>2.079346375801318E-05</v>
+        <v>2.104544270409486E-05</v>
       </c>
       <c r="T18">
-        <v>1.403479342564302E-05</v>
+        <v>1.418066684802732E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.0598565</v>
+        <v>0.903375</v>
       </c>
       <c r="H19">
-        <v>2.119713</v>
+        <v>1.80675</v>
       </c>
       <c r="I19">
-        <v>0.02393337617611352</v>
+        <v>0.02257563747577563</v>
       </c>
       <c r="J19">
-        <v>0.01608389811204027</v>
+        <v>0.0151645413800781</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>54.63182800000001</v>
+        <v>61.580654</v>
       </c>
       <c r="N19">
-        <v>163.895484</v>
+        <v>184.741962</v>
       </c>
       <c r="O19">
-        <v>0.1636907067621498</v>
+        <v>0.1979783766474813</v>
       </c>
       <c r="P19">
-        <v>0.1644053183735124</v>
+        <v>0.1985944416431287</v>
       </c>
       <c r="Q19">
-        <v>57.901898012682</v>
+        <v>55.63042330725001</v>
       </c>
       <c r="R19">
-        <v>347.411388076092</v>
+        <v>333.7825398435</v>
       </c>
       <c r="S19">
-        <v>0.003917671261472421</v>
+        <v>0.004469488059236102</v>
       </c>
       <c r="T19">
-        <v>0.002644278389797114</v>
+        <v>0.003011593628150731</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.0598565</v>
+        <v>0.903375</v>
       </c>
       <c r="H20">
-        <v>2.119713</v>
+        <v>1.80675</v>
       </c>
       <c r="I20">
-        <v>0.02393337617611352</v>
+        <v>0.02257563747577563</v>
       </c>
       <c r="J20">
-        <v>0.01608389811204027</v>
+        <v>0.0151645413800781</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.352083</v>
+        <v>2.8947245</v>
       </c>
       <c r="N20">
-        <v>8.704166000000001</v>
+        <v>5.789449</v>
       </c>
       <c r="O20">
-        <v>0.0130399360269903</v>
+        <v>0.009306378223129816</v>
       </c>
       <c r="P20">
-        <v>0.008731242298328987</v>
+        <v>0.00622355841157717</v>
       </c>
       <c r="Q20">
-        <v>4.6125834560895</v>
+        <v>2.6150217451875</v>
       </c>
       <c r="R20">
-        <v>18.450333824358</v>
+        <v>10.46008698075</v>
       </c>
       <c r="S20">
-        <v>0.000312089694246414</v>
+        <v>0.0002100974209778317</v>
       </c>
       <c r="T20">
-        <v>0.0001404324115178597</v>
+        <v>9.437740906369513E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.0598565</v>
+        <v>0.903375</v>
       </c>
       <c r="H21">
-        <v>2.119713</v>
+        <v>1.80675</v>
       </c>
       <c r="I21">
-        <v>0.02393337617611352</v>
+        <v>0.02257563747577563</v>
       </c>
       <c r="J21">
-        <v>0.01608389811204027</v>
+        <v>0.0151645413800781</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>77.62766766666668</v>
+        <v>83.559527</v>
       </c>
       <c r="N21">
-        <v>232.883003</v>
+        <v>250.678581</v>
       </c>
       <c r="O21">
-        <v>0.2325920301377057</v>
+        <v>0.2686392305754237</v>
       </c>
       <c r="P21">
-        <v>0.233607438823602</v>
+        <v>0.2694751765469873</v>
       </c>
       <c r="Q21">
-        <v>82.27418815635652</v>
+        <v>75.485587703625</v>
       </c>
       <c r="R21">
-        <v>493.6451289381391</v>
+        <v>452.91352622175</v>
       </c>
       <c r="S21">
-        <v>0.005566712552851644</v>
+        <v>0.006064701881242065</v>
       </c>
       <c r="T21">
-        <v>0.003757318244253494</v>
+        <v>0.004086467465650639</v>
       </c>
     </row>
   </sheetData>
